--- a/data/pca/factorExposure/factorExposure_2016-11-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01439120662579456</v>
+        <v>-0.01333359397541325</v>
       </c>
       <c r="C2">
-        <v>0.04364656559809714</v>
+        <v>0.04084279604815284</v>
       </c>
       <c r="D2">
-        <v>-0.02247910549015159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05763137223701591</v>
+      </c>
+      <c r="E2">
+        <v>0.01679804928613012</v>
+      </c>
+      <c r="F2">
+        <v>-0.09134132311012037</v>
+      </c>
+      <c r="G2">
+        <v>-0.04016424594421513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0580974306730117</v>
+        <v>-0.03463194654023533</v>
       </c>
       <c r="C3">
-        <v>0.1015500417303445</v>
+        <v>0.08765075187786643</v>
       </c>
       <c r="D3">
-        <v>-0.0333879764272777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09611475775916205</v>
+      </c>
+      <c r="E3">
+        <v>0.03191158035375836</v>
+      </c>
+      <c r="F3">
+        <v>-0.09670844952256384</v>
+      </c>
+      <c r="G3">
+        <v>0.06429554254282419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06295364431411567</v>
+        <v>-0.05590285268704195</v>
       </c>
       <c r="C4">
-        <v>0.06157229681279586</v>
+        <v>0.06067285564589354</v>
       </c>
       <c r="D4">
-        <v>-0.00227619040219194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05591277936490457</v>
+      </c>
+      <c r="E4">
+        <v>0.01052230159122042</v>
+      </c>
+      <c r="F4">
+        <v>-0.09486823399684308</v>
+      </c>
+      <c r="G4">
+        <v>0.02408953407729155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02766111152124388</v>
+        <v>-0.03542605255948082</v>
       </c>
       <c r="C6">
-        <v>0.05214931030906105</v>
+        <v>0.03864924633196752</v>
       </c>
       <c r="D6">
-        <v>-0.006287044097372493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06254837109269099</v>
+      </c>
+      <c r="E6">
+        <v>0.01756216277003491</v>
+      </c>
+      <c r="F6">
+        <v>-0.08980996344402023</v>
+      </c>
+      <c r="G6">
+        <v>0.00573400343955753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02020043083978115</v>
+        <v>-0.01983858605308629</v>
       </c>
       <c r="C7">
-        <v>0.04448355863364194</v>
+        <v>0.03589203246085143</v>
       </c>
       <c r="D7">
-        <v>0.01111518499125307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03289827289499996</v>
+      </c>
+      <c r="E7">
+        <v>-0.002260333809393753</v>
+      </c>
+      <c r="F7">
+        <v>-0.1189410899894294</v>
+      </c>
+      <c r="G7">
+        <v>-0.01389357386592827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001258908381736356</v>
+        <v>-0.006024584344727637</v>
       </c>
       <c r="C8">
-        <v>0.009079299940823753</v>
+        <v>0.01860514671855023</v>
       </c>
       <c r="D8">
-        <v>-0.01697548154426593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03505778665974842</v>
+      </c>
+      <c r="E8">
+        <v>0.009386668785835495</v>
+      </c>
+      <c r="F8">
+        <v>-0.06963922004167603</v>
+      </c>
+      <c r="G8">
+        <v>0.004311211427940147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02687252550766521</v>
+        <v>-0.03464961314717928</v>
       </c>
       <c r="C9">
-        <v>0.04330839748232625</v>
+        <v>0.04681467984505703</v>
       </c>
       <c r="D9">
-        <v>0.004055272255528317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03976703109281478</v>
+      </c>
+      <c r="E9">
+        <v>0.006712975211881318</v>
+      </c>
+      <c r="F9">
+        <v>-0.09944581376719419</v>
+      </c>
+      <c r="G9">
+        <v>0.006908360408867816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07560408563760772</v>
+        <v>-0.09447316828798032</v>
       </c>
       <c r="C10">
-        <v>-0.2003063892483102</v>
+        <v>-0.1955148805064739</v>
       </c>
       <c r="D10">
-        <v>-0.02160622323796397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01227626518433493</v>
+      </c>
+      <c r="E10">
+        <v>0.03103702161139888</v>
+      </c>
+      <c r="F10">
+        <v>-0.05382379975776309</v>
+      </c>
+      <c r="G10">
+        <v>-0.000824731503880789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04024819181812818</v>
+        <v>-0.03614512234023792</v>
       </c>
       <c r="C11">
-        <v>0.05226483806982738</v>
+        <v>0.05112391901838009</v>
       </c>
       <c r="D11">
-        <v>0.006203494099505154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02935510013676334</v>
+      </c>
+      <c r="E11">
+        <v>-0.01370244885860833</v>
+      </c>
+      <c r="F11">
+        <v>-0.07221263058744809</v>
+      </c>
+      <c r="G11">
+        <v>0.001408930226360837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03503724210240738</v>
+        <v>-0.03686946964233059</v>
       </c>
       <c r="C12">
-        <v>0.04308697836987676</v>
+        <v>0.04655132181845206</v>
       </c>
       <c r="D12">
-        <v>0.008219164847747075</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02092175597946733</v>
+      </c>
+      <c r="E12">
+        <v>-0.004302133452427854</v>
+      </c>
+      <c r="F12">
+        <v>-0.07301808382791229</v>
+      </c>
+      <c r="G12">
+        <v>-0.001437544777366437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.007483668445318511</v>
+        <v>-0.01235683817246788</v>
       </c>
       <c r="C13">
-        <v>0.04037197387451233</v>
+        <v>0.0382511209020507</v>
       </c>
       <c r="D13">
-        <v>-0.01853437705328741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06497077403281798</v>
+      </c>
+      <c r="E13">
+        <v>0.02674399439723708</v>
+      </c>
+      <c r="F13">
+        <v>-0.1365316981330273</v>
+      </c>
+      <c r="G13">
+        <v>0.004449136095079542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007697858030627332</v>
+        <v>-0.008077504483474785</v>
       </c>
       <c r="C14">
-        <v>0.02836609548905493</v>
+        <v>0.02744936474845451</v>
       </c>
       <c r="D14">
-        <v>0.0116295999853118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02458255624493863</v>
+      </c>
+      <c r="E14">
+        <v>0.006579294050975909</v>
+      </c>
+      <c r="F14">
+        <v>-0.1092611316274268</v>
+      </c>
+      <c r="G14">
+        <v>-0.01973499821481279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-8.1702359657308e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.032625687727446e-05</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>8.740536548256779e-05</v>
+      </c>
+      <c r="E15">
+        <v>-5.964355455584689e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.0002865812447832563</v>
+      </c>
+      <c r="G15">
+        <v>-2.610182768950779e-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03498616610257279</v>
+        <v>-0.03403568215446727</v>
       </c>
       <c r="C16">
-        <v>0.03962201118322164</v>
+        <v>0.04407829981961673</v>
       </c>
       <c r="D16">
-        <v>0.0009129295797429755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02530514734992224</v>
+      </c>
+      <c r="E16">
+        <v>0.001839302108052934</v>
+      </c>
+      <c r="F16">
+        <v>-0.07554093198380828</v>
+      </c>
+      <c r="G16">
+        <v>-0.0115243132383309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03325140421671072</v>
+        <v>-0.02068126511787098</v>
       </c>
       <c r="C19">
-        <v>0.05665637219579901</v>
+        <v>0.04833010689564646</v>
       </c>
       <c r="D19">
-        <v>-0.03888955093094862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1004575205563871</v>
+      </c>
+      <c r="E19">
+        <v>0.03033063955036324</v>
+      </c>
+      <c r="F19">
+        <v>-0.13817889313621</v>
+      </c>
+      <c r="G19">
+        <v>-0.02700316291162635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01228338893295244</v>
+        <v>-0.01579033506617598</v>
       </c>
       <c r="C20">
-        <v>0.04375949229221883</v>
+        <v>0.03773481226456975</v>
       </c>
       <c r="D20">
-        <v>-0.02142073731890715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04642577886963587</v>
+      </c>
+      <c r="E20">
+        <v>0.03340059921741766</v>
+      </c>
+      <c r="F20">
+        <v>-0.1040567687305663</v>
+      </c>
+      <c r="G20">
+        <v>-0.0110543343638858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005717413866969449</v>
+        <v>-0.008338769330628311</v>
       </c>
       <c r="C21">
-        <v>0.03720568174842798</v>
+        <v>0.03684170098860156</v>
       </c>
       <c r="D21">
-        <v>-0.02908409830711642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06684440390785355</v>
+      </c>
+      <c r="E21">
+        <v>0.02756412524622089</v>
+      </c>
+      <c r="F21">
+        <v>-0.153730776032643</v>
+      </c>
+      <c r="G21">
+        <v>-0.01105497093408961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.003484396964630015</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01397368023277652</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02530839414459089</v>
+      </c>
+      <c r="E22">
+        <v>0.0003156747809871837</v>
+      </c>
+      <c r="F22">
+        <v>-0.01863856587003583</v>
+      </c>
+      <c r="G22">
+        <v>0.03330565276102412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.003510606059481713</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01390784337509107</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02508896754598021</v>
+      </c>
+      <c r="E23">
+        <v>0.0006293439861515135</v>
+      </c>
+      <c r="F23">
+        <v>-0.0184108466200917</v>
+      </c>
+      <c r="G23">
+        <v>0.03334639182244017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02839769744632947</v>
+        <v>-0.03088270810358215</v>
       </c>
       <c r="C24">
-        <v>0.046470982724838</v>
+        <v>0.05000364377163436</v>
       </c>
       <c r="D24">
-        <v>0.01025606755048317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02376523125669562</v>
+      </c>
+      <c r="E24">
+        <v>-0.005664163361319818</v>
+      </c>
+      <c r="F24">
+        <v>-0.07943683486951802</v>
+      </c>
+      <c r="G24">
+        <v>-0.005853045514049682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04610728531929279</v>
+        <v>-0.04274978326875192</v>
       </c>
       <c r="C25">
-        <v>0.05355135578791408</v>
+        <v>0.05614597370497082</v>
       </c>
       <c r="D25">
-        <v>0.02051970859934728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01773726091886084</v>
+      </c>
+      <c r="E25">
+        <v>-0.006111287432185642</v>
+      </c>
+      <c r="F25">
+        <v>-0.08739099754449861</v>
+      </c>
+      <c r="G25">
+        <v>0.01004941658012936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.007350808083678915</v>
+        <v>-0.01482744953279031</v>
       </c>
       <c r="C26">
-        <v>0.01109527813572093</v>
+        <v>0.01161691767727638</v>
       </c>
       <c r="D26">
-        <v>-0.001591138968640861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01884489706030199</v>
+      </c>
+      <c r="E26">
+        <v>0.007443980609045296</v>
+      </c>
+      <c r="F26">
+        <v>-0.08253756785462829</v>
+      </c>
+      <c r="G26">
+        <v>-0.02397559203669869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08951615606725637</v>
+        <v>-0.1268774286671327</v>
       </c>
       <c r="C28">
-        <v>-0.2277960715513526</v>
+        <v>-0.2461692937700775</v>
       </c>
       <c r="D28">
-        <v>-0.01146725827023043</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006312350794364843</v>
+      </c>
+      <c r="E28">
+        <v>0.03468556180684366</v>
+      </c>
+      <c r="F28">
+        <v>-0.06093415771039288</v>
+      </c>
+      <c r="G28">
+        <v>0.006621740241091506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01161584629057456</v>
+        <v>-0.008113023046023831</v>
       </c>
       <c r="C29">
-        <v>0.0215967941172961</v>
+        <v>0.0232314325598732</v>
       </c>
       <c r="D29">
-        <v>0.01093802724479331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01500932278141888</v>
+      </c>
+      <c r="E29">
+        <v>0.01080915531713568</v>
+      </c>
+      <c r="F29">
+        <v>-0.102714211734018</v>
+      </c>
+      <c r="G29">
+        <v>-0.005261956537827471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0402224008864237</v>
+        <v>-0.03837303653956498</v>
       </c>
       <c r="C30">
-        <v>0.07169199471128906</v>
+        <v>0.0642813840894263</v>
       </c>
       <c r="D30">
-        <v>-0.0005007892955581402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09333422205173636</v>
+      </c>
+      <c r="E30">
+        <v>-0.01470611469057826</v>
+      </c>
+      <c r="F30">
+        <v>-0.1126803262298807</v>
+      </c>
+      <c r="G30">
+        <v>-0.03235317345217714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0422394428862132</v>
+        <v>-0.05639464670627944</v>
       </c>
       <c r="C31">
-        <v>0.02934132475169493</v>
+        <v>0.04260032103814373</v>
       </c>
       <c r="D31">
-        <v>0.01268627216201366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0002086039513878406</v>
+      </c>
+      <c r="E31">
+        <v>0.03257307635355794</v>
+      </c>
+      <c r="F31">
+        <v>-0.09391610457654881</v>
+      </c>
+      <c r="G31">
+        <v>0.02412231126164803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005870796329237206</v>
+        <v>-0.003408965225432974</v>
       </c>
       <c r="C32">
-        <v>0.034682399877582</v>
+        <v>0.024884966011983</v>
       </c>
       <c r="D32">
-        <v>-0.01313840232767465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04537585799040861</v>
+      </c>
+      <c r="E32">
+        <v>-0.005691649154470116</v>
+      </c>
+      <c r="F32">
+        <v>-0.08157566612242378</v>
+      </c>
+      <c r="G32">
+        <v>-0.01372670771296871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0295219097146055</v>
+        <v>-0.02633754141973025</v>
       </c>
       <c r="C33">
-        <v>0.05562216081233849</v>
+        <v>0.04674888017892808</v>
       </c>
       <c r="D33">
-        <v>-0.006138076132599769</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07259211699477323</v>
+      </c>
+      <c r="E33">
+        <v>0.006292548351475773</v>
+      </c>
+      <c r="F33">
+        <v>-0.1542347548693595</v>
+      </c>
+      <c r="G33">
+        <v>0.003105460467136214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05462290984067408</v>
+        <v>-0.04325059627995474</v>
       </c>
       <c r="C34">
-        <v>0.05160078546428343</v>
+        <v>0.06077316159515214</v>
       </c>
       <c r="D34">
-        <v>0.01515501862139652</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02456054186945523</v>
+      </c>
+      <c r="E34">
+        <v>-0.01991906133961972</v>
+      </c>
+      <c r="F34">
+        <v>-0.07966896727387861</v>
+      </c>
+      <c r="G34">
+        <v>-0.00162681033856273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008596440696164897</v>
+        <v>-0.01506563033086836</v>
       </c>
       <c r="C36">
-        <v>0.006893295252994188</v>
+        <v>0.007279960090854774</v>
       </c>
       <c r="D36">
-        <v>0.005334073112649754</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02174160707549911</v>
+      </c>
+      <c r="E36">
+        <v>0.01232014469810759</v>
+      </c>
+      <c r="F36">
+        <v>-0.09653721967352605</v>
+      </c>
+      <c r="G36">
+        <v>-0.001682322096969672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03746548123863132</v>
+        <v>-0.03143315368473092</v>
       </c>
       <c r="C38">
-        <v>0.01862104632202443</v>
+        <v>0.0215339649610399</v>
       </c>
       <c r="D38">
-        <v>0.006452850383123683</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02113135838788154</v>
+      </c>
+      <c r="E38">
+        <v>0.01457050332231865</v>
+      </c>
+      <c r="F38">
+        <v>-0.08747355870799203</v>
+      </c>
+      <c r="G38">
+        <v>0.001961415693592887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03837983068447366</v>
+        <v>-0.03727487694109526</v>
       </c>
       <c r="C39">
-        <v>0.08429249142820712</v>
+        <v>0.07417958654468647</v>
       </c>
       <c r="D39">
-        <v>-0.004978502969188504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04799732364628361</v>
+      </c>
+      <c r="E39">
+        <v>-0.01413168273621958</v>
+      </c>
+      <c r="F39">
+        <v>-0.08609259208447682</v>
+      </c>
+      <c r="G39">
+        <v>-0.03538851523701231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01644502801817642</v>
+        <v>-0.01634941511771297</v>
       </c>
       <c r="C40">
-        <v>0.02725392331789938</v>
+        <v>0.03660311683809306</v>
       </c>
       <c r="D40">
-        <v>-0.01734361472991265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03532661205025638</v>
+      </c>
+      <c r="E40">
+        <v>0.03040989232990107</v>
+      </c>
+      <c r="F40">
+        <v>-0.1182892431147666</v>
+      </c>
+      <c r="G40">
+        <v>0.03731594018191291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01162431607856255</v>
+        <v>-0.01877516728980445</v>
       </c>
       <c r="C41">
-        <v>-0.001184213854372356</v>
+        <v>-0.001696361001165902</v>
       </c>
       <c r="D41">
-        <v>0.006499452353797065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01746316052667066</v>
+      </c>
+      <c r="E41">
+        <v>0.01593030013755159</v>
+      </c>
+      <c r="F41">
+        <v>-0.08766915148489805</v>
+      </c>
+      <c r="G41">
+        <v>-0.008358584721240155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005171616737543541</v>
+        <v>-0.003481573583698145</v>
       </c>
       <c r="C42">
-        <v>0.04971746110798843</v>
+        <v>0.02709773429954412</v>
       </c>
       <c r="D42">
-        <v>-0.01745409112880397</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.001525348112287528</v>
+      </c>
+      <c r="E42">
+        <v>0.02389346024563525</v>
+      </c>
+      <c r="F42">
+        <v>0.03752736933504195</v>
+      </c>
+      <c r="G42">
+        <v>-0.007610789082090296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03112869492932015</v>
+        <v>-0.03221052002703114</v>
       </c>
       <c r="C43">
-        <v>0.008931946474561438</v>
+        <v>0.01127808640764108</v>
       </c>
       <c r="D43">
-        <v>0.004675099733626493</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03809201873547857</v>
+      </c>
+      <c r="E43">
+        <v>0.01268694882153034</v>
+      </c>
+      <c r="F43">
+        <v>-0.1127842287890105</v>
+      </c>
+      <c r="G43">
+        <v>0.0119857211460521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02179897883902415</v>
+        <v>-0.01491097138043159</v>
       </c>
       <c r="C44">
-        <v>0.05398837387003479</v>
+        <v>0.05068470269590465</v>
       </c>
       <c r="D44">
-        <v>-0.005583062384521578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0405125626452518</v>
+      </c>
+      <c r="E44">
+        <v>0.02424258104149112</v>
+      </c>
+      <c r="F44">
+        <v>-0.1119088029051443</v>
+      </c>
+      <c r="G44">
+        <v>-0.01134780309685313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0006937393683068066</v>
+        <v>-0.01024624926644071</v>
       </c>
       <c r="C46">
-        <v>0.01440643829825192</v>
+        <v>0.01843387438635727</v>
       </c>
       <c r="D46">
-        <v>0.01994240760405664</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.007778784886762264</v>
+      </c>
+      <c r="E46">
+        <v>0.01576033245411295</v>
+      </c>
+      <c r="F46">
+        <v>-0.1111237681464804</v>
+      </c>
+      <c r="G46">
+        <v>-0.01175727472524518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07548476960464859</v>
+        <v>-0.08646853403108318</v>
       </c>
       <c r="C47">
-        <v>0.06566744621108966</v>
+        <v>0.07275243438724414</v>
       </c>
       <c r="D47">
-        <v>0.008239888204817088</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.00888946128599117</v>
+      </c>
+      <c r="E47">
+        <v>0.04107524076048549</v>
+      </c>
+      <c r="F47">
+        <v>-0.09061221554267175</v>
+      </c>
+      <c r="G47">
+        <v>0.0302998416969585</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01609870644097519</v>
+        <v>-0.01650785782195029</v>
       </c>
       <c r="C48">
-        <v>0.009768426212253272</v>
+        <v>0.01394628131983864</v>
       </c>
       <c r="D48">
-        <v>0.00895937835571616</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01542070289717422</v>
+      </c>
+      <c r="E48">
+        <v>0.0208079247202026</v>
+      </c>
+      <c r="F48">
+        <v>-0.1054762514252699</v>
+      </c>
+      <c r="G48">
+        <v>-0.00587496947750697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08193717936288188</v>
+        <v>-0.077404813527801</v>
       </c>
       <c r="C50">
-        <v>0.0612597488257761</v>
+        <v>0.06870428861780764</v>
       </c>
       <c r="D50">
-        <v>0.01651123040848993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001798095320384884</v>
+      </c>
+      <c r="E50">
+        <v>0.03876348544249476</v>
+      </c>
+      <c r="F50">
+        <v>-0.09796705507439861</v>
+      </c>
+      <c r="G50">
+        <v>0.05477953271324726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01638071062296733</v>
+        <v>-0.01233202343439285</v>
       </c>
       <c r="C51">
-        <v>0.03745796949376119</v>
+        <v>0.0318921906939818</v>
       </c>
       <c r="D51">
-        <v>0.004382436488628301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04395474074935729</v>
+      </c>
+      <c r="E51">
+        <v>-0.005132910665837336</v>
+      </c>
+      <c r="F51">
+        <v>-0.1019191118544058</v>
+      </c>
+      <c r="G51">
+        <v>-0.02370556229008949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1017549077350094</v>
+        <v>-0.09016005245655354</v>
       </c>
       <c r="C53">
-        <v>0.06891219961114348</v>
+        <v>0.08647969382899823</v>
       </c>
       <c r="D53">
-        <v>0.03385967253442967</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03226589100829566</v>
+      </c>
+      <c r="E53">
+        <v>0.04874277931252562</v>
+      </c>
+      <c r="F53">
+        <v>-0.09737898737277367</v>
+      </c>
+      <c r="G53">
+        <v>0.04311764203382411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02812170061656767</v>
+        <v>-0.03053884161393369</v>
       </c>
       <c r="C54">
-        <v>0.003055311282863565</v>
+        <v>0.01906320378713746</v>
       </c>
       <c r="D54">
-        <v>-0.002268398363853635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02890425368417501</v>
+      </c>
+      <c r="E54">
+        <v>0.011074412658117</v>
+      </c>
+      <c r="F54">
+        <v>-0.1096677016241962</v>
+      </c>
+      <c r="G54">
+        <v>-0.007394555105903825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07575792394994207</v>
+        <v>-0.08253119874463553</v>
       </c>
       <c r="C55">
-        <v>0.06330833682807165</v>
+        <v>0.06945680703772614</v>
       </c>
       <c r="D55">
-        <v>0.02835426286255392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03691074899898555</v>
+      </c>
+      <c r="E55">
+        <v>0.04658380378646614</v>
+      </c>
+      <c r="F55">
+        <v>-0.06779529118336551</v>
+      </c>
+      <c r="G55">
+        <v>0.03387924253935448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1553673352917102</v>
+        <v>-0.1454697790879813</v>
       </c>
       <c r="C56">
-        <v>0.09026384814539103</v>
+        <v>0.1047157645096364</v>
       </c>
       <c r="D56">
-        <v>0.03042832477059897</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04374839133772838</v>
+      </c>
+      <c r="E56">
+        <v>0.05397740337090234</v>
+      </c>
+      <c r="F56">
+        <v>-0.05749745138322152</v>
+      </c>
+      <c r="G56">
+        <v>0.04795798524940812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.005671283970658343</v>
+        <v>-0.002326456551033576</v>
       </c>
       <c r="C57">
-        <v>0.008449557808118792</v>
+        <v>0.004476611897326008</v>
       </c>
       <c r="D57">
-        <v>-0.03113413928268497</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02670827380272276</v>
+      </c>
+      <c r="E57">
+        <v>0.002409604128384016</v>
+      </c>
+      <c r="F57">
+        <v>-0.0101447901201954</v>
+      </c>
+      <c r="G57">
+        <v>-0.00239022014086339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05375337989820086</v>
+        <v>-0.03635889906744805</v>
       </c>
       <c r="C58">
-        <v>0.07053906972823754</v>
+        <v>0.03148962319793577</v>
       </c>
       <c r="D58">
-        <v>-0.96681304216528</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6799875906483559</v>
+      </c>
+      <c r="E58">
+        <v>0.6279078849263415</v>
+      </c>
+      <c r="F58">
+        <v>0.3107332017458496</v>
+      </c>
+      <c r="G58">
+        <v>0.03180715452343452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1372541348045294</v>
+        <v>-0.1485818977255877</v>
       </c>
       <c r="C59">
-        <v>-0.2263127113341106</v>
+        <v>-0.2044376724490798</v>
       </c>
       <c r="D59">
-        <v>-0.01390453012629034</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02183940376949672</v>
+      </c>
+      <c r="E59">
+        <v>0.01276570104613107</v>
+      </c>
+      <c r="F59">
+        <v>-0.03811990301471335</v>
+      </c>
+      <c r="G59">
+        <v>-0.0244201239951458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3125873706023252</v>
+        <v>-0.2843963128058269</v>
       </c>
       <c r="C60">
-        <v>0.07552401023265937</v>
+        <v>0.09484760597048157</v>
       </c>
       <c r="D60">
-        <v>-0.02101267934465872</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1539792838512493</v>
+      </c>
+      <c r="E60">
+        <v>-0.2916153633257242</v>
+      </c>
+      <c r="F60">
+        <v>0.1314034046595415</v>
+      </c>
+      <c r="G60">
+        <v>0.05015166341660494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03530171689442456</v>
+        <v>-0.03955192643207611</v>
       </c>
       <c r="C61">
-        <v>0.06171485079339971</v>
+        <v>0.06183688561614701</v>
       </c>
       <c r="D61">
-        <v>-0.003104287760248485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04020364129123506</v>
+      </c>
+      <c r="E61">
+        <v>-0.004389828639666547</v>
+      </c>
+      <c r="F61">
+        <v>-0.08844403381105474</v>
+      </c>
+      <c r="G61">
+        <v>-0.001543441104598531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01568097678896223</v>
+        <v>-0.01573217862158809</v>
       </c>
       <c r="C63">
-        <v>0.02649845965149495</v>
+        <v>0.02723954189935519</v>
       </c>
       <c r="D63">
-        <v>0.01778535037956419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0154666798268421</v>
+      </c>
+      <c r="E63">
+        <v>0.01233885724428041</v>
+      </c>
+      <c r="F63">
+        <v>-0.09018694013306051</v>
+      </c>
+      <c r="G63">
+        <v>0.01825742602885796</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04724229450127464</v>
+        <v>-0.05175983657870803</v>
       </c>
       <c r="C64">
-        <v>0.02864803072672146</v>
+        <v>0.04743638865066572</v>
       </c>
       <c r="D64">
-        <v>0.01406157418526349</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01120269666345005</v>
+      </c>
+      <c r="E64">
+        <v>-0.003299763271238561</v>
+      </c>
+      <c r="F64">
+        <v>-0.09110790583404502</v>
+      </c>
+      <c r="G64">
+        <v>-0.01802375448903219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0886741255231184</v>
+        <v>-0.07100313484698476</v>
       </c>
       <c r="C65">
-        <v>0.05985027026037718</v>
+        <v>0.0445588394524707</v>
       </c>
       <c r="D65">
-        <v>-0.008636175672282342</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.06866904171885306</v>
+      </c>
+      <c r="E65">
+        <v>-0.003391671694997291</v>
+      </c>
+      <c r="F65">
+        <v>-0.03983825875203055</v>
+      </c>
+      <c r="G65">
+        <v>-0.005235513496982082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06306426059352599</v>
+        <v>-0.05069398806823121</v>
       </c>
       <c r="C66">
-        <v>0.1193433393233404</v>
+        <v>0.09832550198868203</v>
       </c>
       <c r="D66">
-        <v>-0.008926854364086566</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07076001654703859</v>
+      </c>
+      <c r="E66">
+        <v>-0.0167869779470525</v>
+      </c>
+      <c r="F66">
+        <v>-0.09205435556310661</v>
+      </c>
+      <c r="G66">
+        <v>-0.01598570553767797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06418167552833492</v>
+        <v>-0.05366733558449749</v>
       </c>
       <c r="C67">
-        <v>0.02100530832796466</v>
+        <v>0.02685581516257253</v>
       </c>
       <c r="D67">
-        <v>0.01109076777344848</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007940550620434013</v>
+      </c>
+      <c r="E67">
+        <v>0.008150412911913655</v>
+      </c>
+      <c r="F67">
+        <v>-0.07269847305853322</v>
+      </c>
+      <c r="G67">
+        <v>0.007106661390028221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1098588542639227</v>
+        <v>-0.1502189635575502</v>
       </c>
       <c r="C68">
-        <v>-0.28962660098412</v>
+        <v>-0.2685085810887065</v>
       </c>
       <c r="D68">
-        <v>-0.02565659318989127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.008329237323899933</v>
+      </c>
+      <c r="E68">
+        <v>0.04129385304129501</v>
+      </c>
+      <c r="F68">
+        <v>-0.02512763375037153</v>
+      </c>
+      <c r="G68">
+        <v>-0.005085505347725246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08381133220988904</v>
+        <v>-0.08429211463517797</v>
       </c>
       <c r="C69">
-        <v>0.05970761625563691</v>
+        <v>0.07715718772214562</v>
       </c>
       <c r="D69">
-        <v>0.02909368430367655</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009598546953722585</v>
+      </c>
+      <c r="E69">
+        <v>0.01311430535625253</v>
+      </c>
+      <c r="F69">
+        <v>-0.09908815389556963</v>
+      </c>
+      <c r="G69">
+        <v>0.001402834166327895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1170918184642192</v>
+        <v>-0.1393358058870129</v>
       </c>
       <c r="C71">
-        <v>-0.2418408300398716</v>
+        <v>-0.2381770453844063</v>
       </c>
       <c r="D71">
-        <v>-0.02644239663186142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02090478483052613</v>
+      </c>
+      <c r="E71">
+        <v>0.0411010130896156</v>
+      </c>
+      <c r="F71">
+        <v>-0.06831237691893764</v>
+      </c>
+      <c r="G71">
+        <v>0.01643448549082269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07899519214292687</v>
+        <v>-0.0877916059216159</v>
       </c>
       <c r="C72">
-        <v>0.05713794893083498</v>
+        <v>0.05626549815442389</v>
       </c>
       <c r="D72">
-        <v>0.0465357309503582</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008872002498942853</v>
+      </c>
+      <c r="E72">
+        <v>-0.02335792521361947</v>
+      </c>
+      <c r="F72">
+        <v>-0.07982182265464333</v>
+      </c>
+      <c r="G72">
+        <v>0.007353967036697521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4500391357886112</v>
+        <v>-0.3621539447198905</v>
       </c>
       <c r="C73">
-        <v>0.07385011776128242</v>
+        <v>0.07868742500846622</v>
       </c>
       <c r="D73">
-        <v>-0.03859807176678909</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3226019276824691</v>
+      </c>
+      <c r="E73">
+        <v>-0.5222525179768661</v>
+      </c>
+      <c r="F73">
+        <v>0.3265460338791282</v>
+      </c>
+      <c r="G73">
+        <v>0.1683833213467574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1207954520574803</v>
+        <v>-0.1125101214805529</v>
       </c>
       <c r="C74">
-        <v>0.1121138240470588</v>
+        <v>0.1059502407746084</v>
       </c>
       <c r="D74">
-        <v>0.02459127134997725</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01928520014620126</v>
+      </c>
+      <c r="E74">
+        <v>0.06522883333788064</v>
+      </c>
+      <c r="F74">
+        <v>-0.07934507031936969</v>
+      </c>
+      <c r="G74">
+        <v>0.05713046054351404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2722175735361723</v>
+        <v>-0.2594850874053705</v>
       </c>
       <c r="C75">
-        <v>0.119872691106388</v>
+        <v>0.1389521657319931</v>
       </c>
       <c r="D75">
-        <v>0.05279825786623745</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.114797989009085</v>
+      </c>
+      <c r="E75">
+        <v>0.1250565188238777</v>
+      </c>
+      <c r="F75">
+        <v>-0.02082184178763326</v>
+      </c>
+      <c r="G75">
+        <v>0.07764190250784085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1234650380967936</v>
+        <v>-0.1286477012784031</v>
       </c>
       <c r="C76">
-        <v>0.1027745768062826</v>
+        <v>0.1047383769135268</v>
       </c>
       <c r="D76">
-        <v>0.03936244156625196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04951373319111079</v>
+      </c>
+      <c r="E76">
+        <v>0.08276007340551234</v>
+      </c>
+      <c r="F76">
+        <v>-0.07759386162092859</v>
+      </c>
+      <c r="G76">
+        <v>0.05004967178051222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07305998906961578</v>
+        <v>-0.06737150706826643</v>
       </c>
       <c r="C77">
-        <v>0.05760932185857566</v>
+        <v>0.06230340913714309</v>
       </c>
       <c r="D77">
-        <v>-0.028797186409446</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05439502187144196</v>
+      </c>
+      <c r="E77">
+        <v>0.03899743778856548</v>
+      </c>
+      <c r="F77">
+        <v>-0.09916708640642986</v>
+      </c>
+      <c r="G77">
+        <v>-0.1399787852019977</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04583592703947537</v>
+        <v>-0.0429313744132011</v>
       </c>
       <c r="C78">
-        <v>0.04766048361186314</v>
+        <v>0.05518440106341336</v>
       </c>
       <c r="D78">
-        <v>-0.004305801908644251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05803264702369435</v>
+      </c>
+      <c r="E78">
+        <v>-0.0183644542451472</v>
+      </c>
+      <c r="F78">
+        <v>-0.1009658283647903</v>
+      </c>
+      <c r="G78">
+        <v>-0.01290548941644024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.005211001023212367</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.02315029135530827</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.006958884801090245</v>
+      </c>
+      <c r="E79">
+        <v>0.02131969123248436</v>
+      </c>
+      <c r="F79">
+        <v>-0.02678191153764355</v>
+      </c>
+      <c r="G79">
+        <v>0.03457041634163599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05559702622332941</v>
+        <v>-0.04075647287992446</v>
       </c>
       <c r="C80">
-        <v>0.05701836918321276</v>
+        <v>0.0479916941043259</v>
       </c>
       <c r="D80">
-        <v>-0.0144745898939258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04112952996028652</v>
+      </c>
+      <c r="E80">
+        <v>0.001176087008616111</v>
+      </c>
+      <c r="F80">
+        <v>-0.03401438658471086</v>
+      </c>
+      <c r="G80">
+        <v>-0.04692032359731225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1392768989286493</v>
+        <v>-0.1426101497883017</v>
       </c>
       <c r="C81">
-        <v>0.07685851917097014</v>
+        <v>0.09420535266674153</v>
       </c>
       <c r="D81">
-        <v>0.03223502521073204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07785702107377235</v>
+      </c>
+      <c r="E81">
+        <v>0.1019921388743227</v>
+      </c>
+      <c r="F81">
+        <v>-0.04010966096809967</v>
+      </c>
+      <c r="G81">
+        <v>0.05251824943976432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.05811852936768777</v>
+        <v>-0.1794765866729021</v>
       </c>
       <c r="C82">
-        <v>0.04035987565853009</v>
+        <v>0.1247315986164443</v>
       </c>
       <c r="D82">
-        <v>0.02121004465776289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1934543358132393</v>
+      </c>
+      <c r="E82">
+        <v>0.05181588718206471</v>
+      </c>
+      <c r="F82">
+        <v>-0.04840672986516446</v>
+      </c>
+      <c r="G82">
+        <v>-0.009891705327819092</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03074089891237228</v>
+        <v>-0.02854989912482115</v>
       </c>
       <c r="C83">
-        <v>0.01904270210689312</v>
+        <v>0.03244403376432414</v>
       </c>
       <c r="D83">
-        <v>-0.01685447698356238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03420965559695741</v>
+      </c>
+      <c r="E83">
+        <v>-0.006941209178368111</v>
+      </c>
+      <c r="F83">
+        <v>-0.05515981369052116</v>
+      </c>
+      <c r="G83">
+        <v>-0.03284871633483342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2500953047507764</v>
+        <v>-0.2133050218958033</v>
       </c>
       <c r="C85">
-        <v>0.1171409053413533</v>
+        <v>0.1267234480429889</v>
       </c>
       <c r="D85">
-        <v>0.1158119974228348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1136543727033111</v>
+      </c>
+      <c r="E85">
+        <v>0.04896955435870545</v>
+      </c>
+      <c r="F85">
+        <v>0.01264853424843252</v>
+      </c>
+      <c r="G85">
+        <v>0.1228761746514335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01045493200611657</v>
+        <v>-0.01382718553638796</v>
       </c>
       <c r="C86">
-        <v>0.02185551314171632</v>
+        <v>0.02385035771660261</v>
       </c>
       <c r="D86">
-        <v>-0.01043365768345201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07785939670770826</v>
+      </c>
+      <c r="E86">
+        <v>-0.003590508243905693</v>
+      </c>
+      <c r="F86">
+        <v>-0.162941191102968</v>
+      </c>
+      <c r="G86">
+        <v>-0.03582323410706987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01337327874900102</v>
+        <v>-0.0205452573062037</v>
       </c>
       <c r="C87">
-        <v>0.02310146436677099</v>
+        <v>0.01610272375515351</v>
       </c>
       <c r="D87">
-        <v>-0.07651983005698661</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.095750406029978</v>
+      </c>
+      <c r="E87">
+        <v>0.04317525957705933</v>
+      </c>
+      <c r="F87">
+        <v>-0.1057248010066291</v>
+      </c>
+      <c r="G87">
+        <v>-0.05008692438110236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09952262110309547</v>
+        <v>-0.09023909686179332</v>
       </c>
       <c r="C88">
-        <v>0.05945905535561517</v>
+        <v>0.06091027060172614</v>
       </c>
       <c r="D88">
-        <v>0.006853803595749157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0104040566603856</v>
+      </c>
+      <c r="E88">
+        <v>0.01372240832740683</v>
+      </c>
+      <c r="F88">
+        <v>-0.09502545459056526</v>
+      </c>
+      <c r="G88">
+        <v>-0.04834235592846047</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1857741284433041</v>
+        <v>-0.2107336334570438</v>
       </c>
       <c r="C89">
-        <v>-0.3781223092213546</v>
+        <v>-0.3715914468569856</v>
       </c>
       <c r="D89">
-        <v>0.01770534594669866</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01927318755714534</v>
+      </c>
+      <c r="E89">
+        <v>0.007008349753566299</v>
+      </c>
+      <c r="F89">
+        <v>-0.07234522163926206</v>
+      </c>
+      <c r="G89">
+        <v>-0.09033050345525763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.169076402628405</v>
+        <v>-0.1991743662088481</v>
       </c>
       <c r="C90">
-        <v>-0.3536226380811124</v>
+        <v>-0.3240718052047659</v>
       </c>
       <c r="D90">
-        <v>-0.02103056151279776</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01371770287028845</v>
+      </c>
+      <c r="E90">
+        <v>0.05138154773626135</v>
+      </c>
+      <c r="F90">
+        <v>-0.05105772501173286</v>
+      </c>
+      <c r="G90">
+        <v>-0.02919724053834226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2094982517270498</v>
+        <v>-0.1929449580485943</v>
       </c>
       <c r="C91">
-        <v>0.1069699854530435</v>
+        <v>0.1349065415142444</v>
       </c>
       <c r="D91">
-        <v>0.049795973064342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0922870952476178</v>
+      </c>
+      <c r="E91">
+        <v>0.09971618069573707</v>
+      </c>
+      <c r="F91">
+        <v>-0.05122232575991741</v>
+      </c>
+      <c r="G91">
+        <v>0.05428673197988289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1727310388997706</v>
+        <v>-0.1831265090035965</v>
       </c>
       <c r="C92">
-        <v>-0.2800425035469358</v>
+        <v>-0.2752113342690506</v>
       </c>
       <c r="D92">
-        <v>-0.009513939775614093</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0005399596951540391</v>
+      </c>
+      <c r="E92">
+        <v>0.07661374670980542</v>
+      </c>
+      <c r="F92">
+        <v>-0.07535849692498102</v>
+      </c>
+      <c r="G92">
+        <v>-0.02303848975041136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1806581033350364</v>
+        <v>-0.2214430255427751</v>
       </c>
       <c r="C93">
-        <v>-0.3311772640454823</v>
+        <v>-0.3179008430877138</v>
       </c>
       <c r="D93">
-        <v>-0.01476365730745268</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0003551800616864929</v>
+      </c>
+      <c r="E93">
+        <v>0.03663535838599651</v>
+      </c>
+      <c r="F93">
+        <v>-0.05863034543736392</v>
+      </c>
+      <c r="G93">
+        <v>0.01487520550083869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2706307562060717</v>
+        <v>-0.3373385578589267</v>
       </c>
       <c r="C94">
-        <v>0.134050537428269</v>
+        <v>0.185742873483824</v>
       </c>
       <c r="D94">
-        <v>0.07560517920300659</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4057287867331787</v>
+      </c>
+      <c r="E94">
+        <v>0.3103599293361497</v>
+      </c>
+      <c r="F94">
+        <v>0.4254183606971795</v>
+      </c>
+      <c r="G94">
+        <v>-0.2262676233584639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08444916982462147</v>
+        <v>-0.08014194080873237</v>
       </c>
       <c r="C95">
-        <v>0.08185873154253956</v>
+        <v>0.08369858798487684</v>
       </c>
       <c r="D95">
-        <v>-0.07630733753020942</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1425722718893032</v>
+      </c>
+      <c r="E95">
+        <v>-0.1501257596669354</v>
+      </c>
+      <c r="F95">
+        <v>0.004150254312279112</v>
+      </c>
+      <c r="G95">
+        <v>-0.8974494393119561</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.210200809321719</v>
+        <v>-0.1947675746861494</v>
       </c>
       <c r="C98">
-        <v>0.02987688206247887</v>
+        <v>0.04227229066528135</v>
       </c>
       <c r="D98">
-        <v>-0.03877569542832001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1439233183556894</v>
+      </c>
+      <c r="E98">
+        <v>-0.1820768214651473</v>
+      </c>
+      <c r="F98">
+        <v>0.04594823588200853</v>
+      </c>
+      <c r="G98">
+        <v>0.1013436699462393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01124605677216252</v>
+        <v>-0.007953159485779697</v>
       </c>
       <c r="C101">
-        <v>0.02167294867889899</v>
+        <v>0.0231405885458987</v>
       </c>
       <c r="D101">
-        <v>0.01103990140901488</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01450785739098998</v>
+      </c>
+      <c r="E101">
+        <v>0.01128332442106796</v>
+      </c>
+      <c r="F101">
+        <v>-0.1019998272070342</v>
+      </c>
+      <c r="G101">
+        <v>-0.006082003136921365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1277451035219405</v>
+        <v>-0.1241162929940741</v>
       </c>
       <c r="C102">
-        <v>0.06990104514061184</v>
+        <v>0.09589573231470319</v>
       </c>
       <c r="D102">
-        <v>0.03344848090631763</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04860216027327646</v>
+      </c>
+      <c r="E102">
+        <v>0.01277784973822533</v>
+      </c>
+      <c r="F102">
+        <v>-0.02159913052961282</v>
+      </c>
+      <c r="G102">
+        <v>0.01842121073844859</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.004788918328247605</v>
+        <v>0.001626227686338721</v>
       </c>
       <c r="C104">
-        <v>0.005303784456835758</v>
+        <v>0.002451177417148158</v>
       </c>
       <c r="D104">
-        <v>-0.01126741662551263</v>
+        <v>0.006568701995155349</v>
+      </c>
+      <c r="E104">
+        <v>-0.000399003308834983</v>
+      </c>
+      <c r="F104">
+        <v>0.005651688719440239</v>
+      </c>
+      <c r="G104">
+        <v>-0.00674350600591971</v>
       </c>
     </row>
   </sheetData>
